--- a/wgs_df_2024-07-08.xlsx
+++ b/wgs_df_2024-07-08.xlsx
@@ -230,7 +230,7 @@
     <t>24ARS_BGH0062</t>
   </si>
   <si>
-    <t>24ARS_BGH0065</t>
+    <t>22ARS_BGH0065</t>
   </si>
   <si>
     <t>24ARS_DMC0129</t>
@@ -287,7 +287,7 @@
     <t>Klebsiella pneumoniae</t>
   </si>
   <si>
-    <t>False</t>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
